--- a/metrics/R2/upto time/Ceguera (UPTO).xlsx
+++ b/metrics/R2/upto time/Ceguera (UPTO).xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7910430754635666</v>
+        <v>0.6994913607464787</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7910430754635666</v>
+        <v>0.6994913607464787</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7910430754635666</v>
+        <v>0.6994913607464787</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9919196979138035</v>
+        <v>0.980829281466189</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9919268047675807</v>
+        <v>0.9803489704430846</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9918092594023024</v>
+        <v>0.9810895088391247</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9889075832457471</v>
+        <v>0.9714455693561294</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9889363797120384</v>
+        <v>0.9713268960414374</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9889223164425595</v>
+        <v>0.9712560209433346</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9763221782742267</v>
+        <v>0.9655814647520052</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9739626298146769</v>
+        <v>0.9680316915735511</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9748755995469266</v>
+        <v>0.9681793565108885</v>
       </c>
     </row>
   </sheetData>
